--- a/Oxit.Web.Admin/files/kira.xlsx
+++ b/Oxit.Web.Admin/files/kira.xlsx
@@ -1,77 +1,165 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Oxit\oxit\Oxit.Web.Admin\files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yasar\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sayfa1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
-    <t>a</t>
+    <t xml:space="preserve">FİRMALAR </t>
   </si>
   <si>
-    <t>01.01.2021</t>
+    <t>M²</t>
   </si>
   <si>
-    <t>Firma Adı</t>
+    <t xml:space="preserve">SÖZLEŞME BAŞLANGIÇ </t>
   </si>
   <si>
-    <t>Başlama Tarihi</t>
+    <t>SÖZLEŞME BİTİŞ</t>
   </si>
   <si>
-    <t>Bitiş Tairih</t>
+    <t>KİRA BEDELİ</t>
   </si>
   <si>
-    <t>Metrekare</t>
+    <t>İŞLETME BEDELİ</t>
   </si>
   <si>
-    <t>Metrekare Fiyatı</t>
+    <t>KİRA M2 BİRİM FİYATI</t>
   </si>
   <si>
-    <t>Toplam Fiyat</t>
+    <t>İŞLETME M2 BİRİM FİYATI</t>
+  </si>
+  <si>
+    <t>KİRA VE İŞLETME KDV SİZ TOPLAM</t>
+  </si>
+  <si>
+    <t>KİRA KDV TOPLAM</t>
+  </si>
+  <si>
+    <t>İŞLETME KDV TOPLAM</t>
+  </si>
+  <si>
+    <t>KİRA İŞLETME  KDV Lİ TOPLAM</t>
+  </si>
+  <si>
+    <t>DEĞİŞİKLİK DURUMU</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="#,##0.00\ _T_L"/>
+  </numFmts>
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="162"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="162"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="162"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="162"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="162"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="162"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="162"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="YS Text"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -79,16 +167,115 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -104,7 +291,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Teması">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -120,7 +307,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -132,7 +319,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -179,6 +366,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -214,6 +418,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -366,120 +587,765 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:AS49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="1" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="54.85546875" style="7" customWidth="1"/>
+    <col min="2" max="2" width="5.85546875" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="11.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="13.28515625" style="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="8.7109375" style="12" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="13.28515625" style="12" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10" style="12" customWidth="1"/>
+    <col min="12" max="12" width="10.42578125" style="12" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="26.85546875" style="7" customWidth="1"/>
+    <col min="14" max="14" width="8.28515625" style="16" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:45" ht="48">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>0</v>
+      <c r="I1" s="5" t="s">
+        <v>8</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>1</v>
+      <c r="J1" s="4" t="s">
+        <v>9</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>1</v>
+      <c r="K1" s="6" t="s">
+        <v>10</v>
       </c>
-      <c r="D2">
+      <c r="L1" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="E2">
-        <v>13.5</v>
-      </c>
-      <c r="F2">
-        <v>42.56</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
+      <c r="N1" s="17"/>
+    </row>
+    <row r="2" spans="1:45">
+      <c r="A2" s="18"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="21"/>
+      <c r="M2" s="22"/>
+      <c r="N2" s="25"/>
+      <c r="O2" s="23"/>
+      <c r="P2" s="23"/>
+      <c r="Q2" s="23"/>
+      <c r="R2" s="23"/>
+      <c r="S2" s="23"/>
+      <c r="T2" s="23"/>
+      <c r="U2" s="23"/>
+      <c r="V2" s="23"/>
+      <c r="W2" s="23"/>
+      <c r="X2" s="23"/>
+      <c r="Y2" s="23"/>
+      <c r="Z2" s="23"/>
+      <c r="AA2" s="23"/>
+      <c r="AB2" s="23"/>
+      <c r="AC2" s="23"/>
+      <c r="AD2" s="23"/>
+      <c r="AE2" s="23"/>
+      <c r="AF2" s="23"/>
+      <c r="AG2" s="23"/>
+      <c r="AH2" s="23"/>
+      <c r="AI2" s="23"/>
+      <c r="AJ2" s="23"/>
+      <c r="AK2" s="23"/>
+      <c r="AL2" s="23"/>
+      <c r="AM2" s="23"/>
+      <c r="AN2" s="23"/>
+      <c r="AO2" s="23"/>
+      <c r="AP2" s="23"/>
+      <c r="AQ2" s="23"/>
+      <c r="AR2" s="23"/>
+      <c r="AS2" s="23"/>
+    </row>
+    <row r="3" spans="1:45">
+      <c r="N3" s="25"/>
+      <c r="O3" s="23"/>
+      <c r="P3" s="23"/>
+      <c r="Q3" s="23"/>
+      <c r="R3" s="23"/>
+      <c r="S3" s="23"/>
+      <c r="T3" s="23"/>
+      <c r="U3" s="23"/>
+      <c r="V3" s="23"/>
+      <c r="W3" s="23"/>
+      <c r="X3" s="23"/>
+      <c r="Y3" s="23"/>
+      <c r="Z3" s="23"/>
+      <c r="AA3" s="23"/>
+      <c r="AB3" s="23"/>
+      <c r="AC3" s="23"/>
+      <c r="AD3" s="23"/>
+      <c r="AE3" s="23"/>
+      <c r="AF3" s="23"/>
+      <c r="AG3" s="23"/>
+      <c r="AH3" s="23"/>
+      <c r="AI3" s="23"/>
+      <c r="AJ3" s="23"/>
+      <c r="AK3" s="23"/>
+      <c r="AL3" s="23"/>
+      <c r="AM3" s="23"/>
+      <c r="AN3" s="23"/>
+      <c r="AO3" s="23"/>
+      <c r="AP3" s="23"/>
+      <c r="AQ3" s="23"/>
+      <c r="AR3" s="23"/>
+      <c r="AS3" s="23"/>
+    </row>
+    <row r="4" spans="1:45">
+      <c r="N4" s="25"/>
+      <c r="O4" s="23"/>
+      <c r="P4" s="23"/>
+      <c r="Q4" s="23"/>
+      <c r="R4" s="23"/>
+      <c r="S4" s="23"/>
+      <c r="T4" s="23"/>
+      <c r="U4" s="23"/>
+      <c r="V4" s="23"/>
+      <c r="W4" s="23"/>
+      <c r="X4" s="23"/>
+      <c r="Y4" s="23"/>
+      <c r="Z4" s="23"/>
+      <c r="AA4" s="23"/>
+      <c r="AB4" s="23"/>
+      <c r="AC4" s="23"/>
+      <c r="AD4" s="23"/>
+      <c r="AE4" s="23"/>
+      <c r="AF4" s="23"/>
+      <c r="AG4" s="23"/>
+      <c r="AH4" s="23"/>
+      <c r="AI4" s="23"/>
+      <c r="AJ4" s="23"/>
+      <c r="AK4" s="23"/>
+      <c r="AL4" s="23"/>
+      <c r="AM4" s="23"/>
+      <c r="AN4" s="23"/>
+      <c r="AO4" s="23"/>
+      <c r="AP4" s="23"/>
+      <c r="AQ4" s="23"/>
+      <c r="AR4" s="23"/>
+      <c r="AS4" s="23"/>
+    </row>
+    <row r="5" spans="1:45">
+      <c r="N5" s="25"/>
+      <c r="O5" s="23"/>
+      <c r="P5" s="23"/>
+      <c r="Q5" s="23"/>
+      <c r="R5" s="23"/>
+      <c r="S5" s="23"/>
+      <c r="T5" s="23"/>
+      <c r="U5" s="23"/>
+      <c r="V5" s="23"/>
+      <c r="W5" s="23"/>
+      <c r="X5" s="23"/>
+      <c r="Y5" s="23"/>
+      <c r="Z5" s="23"/>
+      <c r="AA5" s="23"/>
+      <c r="AB5" s="23"/>
+      <c r="AC5" s="23"/>
+      <c r="AD5" s="23"/>
+      <c r="AE5" s="23"/>
+      <c r="AF5" s="23"/>
+      <c r="AG5" s="23"/>
+      <c r="AH5" s="23"/>
+      <c r="AI5" s="23"/>
+      <c r="AJ5" s="23"/>
+      <c r="AK5" s="23"/>
+      <c r="AL5" s="23"/>
+      <c r="AM5" s="23"/>
+      <c r="AN5" s="23"/>
+      <c r="AO5" s="23"/>
+      <c r="AP5" s="23"/>
+      <c r="AQ5" s="23"/>
+      <c r="AR5" s="23"/>
+      <c r="AS5" s="23"/>
+    </row>
+    <row r="6" spans="1:45">
+      <c r="N6" s="25"/>
+      <c r="O6" s="23"/>
+      <c r="P6" s="23"/>
+      <c r="Q6" s="23"/>
+      <c r="R6" s="23"/>
+      <c r="S6" s="23"/>
+      <c r="T6" s="23"/>
+      <c r="U6" s="23"/>
+      <c r="V6" s="23"/>
+      <c r="W6" s="23"/>
+      <c r="X6" s="23"/>
+      <c r="Y6" s="23"/>
+      <c r="Z6" s="23"/>
+      <c r="AA6" s="23"/>
+      <c r="AB6" s="23"/>
+      <c r="AC6" s="23"/>
+      <c r="AD6" s="23"/>
+      <c r="AE6" s="23"/>
+      <c r="AF6" s="23"/>
+      <c r="AG6" s="23"/>
+      <c r="AH6" s="23"/>
+      <c r="AI6" s="23"/>
+      <c r="AJ6" s="23"/>
+      <c r="AK6" s="23"/>
+      <c r="AL6" s="23"/>
+      <c r="AM6" s="23"/>
+      <c r="AN6" s="23"/>
+      <c r="AO6" s="23"/>
+      <c r="AP6" s="23"/>
+      <c r="AQ6" s="23"/>
+      <c r="AR6" s="23"/>
+      <c r="AS6" s="23"/>
+    </row>
+    <row r="7" spans="1:45">
+      <c r="N7" s="25"/>
+      <c r="O7" s="23"/>
+      <c r="P7" s="23"/>
+      <c r="Q7" s="23"/>
+      <c r="R7" s="23"/>
+      <c r="S7" s="23"/>
+      <c r="T7" s="23"/>
+      <c r="U7" s="23"/>
+      <c r="V7" s="23"/>
+      <c r="W7" s="23"/>
+      <c r="X7" s="23"/>
+      <c r="Y7" s="23"/>
+      <c r="Z7" s="23"/>
+      <c r="AA7" s="23"/>
+      <c r="AB7" s="23"/>
+      <c r="AC7" s="23"/>
+      <c r="AD7" s="23"/>
+      <c r="AE7" s="23"/>
+      <c r="AF7" s="23"/>
+      <c r="AG7" s="23"/>
+      <c r="AH7" s="23"/>
+      <c r="AI7" s="23"/>
+      <c r="AJ7" s="23"/>
+      <c r="AK7" s="23"/>
+      <c r="AL7" s="23"/>
+      <c r="AM7" s="23"/>
+      <c r="AN7" s="23"/>
+      <c r="AO7" s="23"/>
+      <c r="AP7" s="23"/>
+      <c r="AQ7" s="23"/>
+      <c r="AR7" s="23"/>
+      <c r="AS7" s="23"/>
+    </row>
+    <row r="8" spans="1:45">
+      <c r="N8" s="25"/>
+      <c r="O8" s="23"/>
+      <c r="P8" s="23"/>
+      <c r="Q8" s="23"/>
+      <c r="R8" s="23"/>
+      <c r="S8" s="23"/>
+      <c r="T8" s="23"/>
+      <c r="U8" s="23"/>
+      <c r="V8" s="23"/>
+      <c r="W8" s="23"/>
+      <c r="X8" s="23"/>
+      <c r="Y8" s="23"/>
+      <c r="Z8" s="23"/>
+      <c r="AA8" s="23"/>
+      <c r="AB8" s="23"/>
+      <c r="AC8" s="23"/>
+      <c r="AD8" s="23"/>
+      <c r="AE8" s="23"/>
+      <c r="AF8" s="23"/>
+      <c r="AG8" s="23"/>
+      <c r="AH8" s="23"/>
+      <c r="AI8" s="23"/>
+      <c r="AJ8" s="23"/>
+      <c r="AK8" s="23"/>
+      <c r="AL8" s="23"/>
+      <c r="AM8" s="23"/>
+      <c r="AN8" s="23"/>
+      <c r="AO8" s="23"/>
+      <c r="AP8" s="23"/>
+      <c r="AQ8" s="23"/>
+      <c r="AR8" s="23"/>
+      <c r="AS8" s="23"/>
+    </row>
+    <row r="9" spans="1:45">
+      <c r="N9" s="25"/>
+      <c r="O9" s="23"/>
+      <c r="P9" s="23"/>
+      <c r="Q9" s="23"/>
+      <c r="R9" s="23"/>
+      <c r="S9" s="23"/>
+      <c r="T9" s="23"/>
+    </row>
+    <row r="10" spans="1:45">
+      <c r="N10" s="25"/>
+      <c r="O10" s="23"/>
+      <c r="P10" s="23"/>
+      <c r="Q10" s="23"/>
+      <c r="R10" s="23"/>
+      <c r="S10" s="23"/>
+      <c r="T10" s="23"/>
+    </row>
+    <row r="11" spans="1:45">
+      <c r="N11" s="25"/>
+      <c r="O11" s="23"/>
+      <c r="P11" s="23"/>
+      <c r="Q11" s="23"/>
+      <c r="R11" s="23"/>
+      <c r="S11" s="23"/>
+      <c r="T11" s="23"/>
+    </row>
+    <row r="12" spans="1:45">
+      <c r="N12" s="25"/>
+      <c r="O12" s="23"/>
+      <c r="P12" s="23"/>
+      <c r="Q12" s="23"/>
+      <c r="R12" s="23"/>
+      <c r="S12" s="23"/>
+      <c r="T12" s="23"/>
+    </row>
+    <row r="13" spans="1:45" s="9" customFormat="1">
+      <c r="A13" s="7"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="12"/>
+      <c r="K13" s="12"/>
+      <c r="L13" s="12"/>
+      <c r="M13" s="8"/>
+      <c r="N13" s="25"/>
+      <c r="O13" s="23"/>
+      <c r="P13" s="23"/>
+      <c r="Q13" s="23"/>
+      <c r="R13" s="23"/>
+      <c r="S13" s="24"/>
+      <c r="T13" s="24"/>
+    </row>
+    <row r="14" spans="1:45">
+      <c r="N14" s="25"/>
+      <c r="O14" s="23"/>
+      <c r="P14" s="23"/>
+      <c r="Q14" s="23"/>
+      <c r="R14" s="23"/>
+      <c r="S14" s="23"/>
+      <c r="T14" s="23"/>
+    </row>
+    <row r="15" spans="1:45">
+      <c r="N15" s="25"/>
+      <c r="O15" s="23"/>
+      <c r="P15" s="23"/>
+      <c r="Q15" s="23"/>
+      <c r="R15" s="23"/>
+      <c r="S15" s="23"/>
+      <c r="T15" s="23"/>
+    </row>
+    <row r="16" spans="1:45">
+      <c r="N16" s="25"/>
+      <c r="O16" s="23"/>
+      <c r="P16" s="23"/>
+      <c r="Q16" s="23"/>
+      <c r="R16" s="23"/>
+      <c r="S16" s="23"/>
+      <c r="T16" s="23"/>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="N17" s="25"/>
+      <c r="O17" s="23"/>
+      <c r="P17" s="23"/>
+      <c r="Q17" s="23"/>
+      <c r="R17" s="23"/>
+      <c r="S17" s="23"/>
+      <c r="T17" s="23"/>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="N18" s="25"/>
+      <c r="O18" s="23"/>
+      <c r="P18" s="23"/>
+      <c r="Q18" s="23"/>
+      <c r="R18" s="23"/>
+      <c r="S18" s="23"/>
+      <c r="T18" s="23"/>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="N19" s="25"/>
+      <c r="O19" s="23"/>
+      <c r="P19" s="23"/>
+      <c r="Q19" s="23"/>
+      <c r="R19" s="23"/>
+      <c r="S19" s="23"/>
+      <c r="T19" s="23"/>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="N20" s="25"/>
+      <c r="O20" s="23"/>
+      <c r="P20" s="23"/>
+      <c r="Q20" s="23"/>
+      <c r="R20" s="23"/>
+      <c r="S20" s="23"/>
+      <c r="T20" s="23"/>
+    </row>
+    <row r="21" spans="1:20" s="9" customFormat="1">
+      <c r="A21" s="7"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="13"/>
+      <c r="J21" s="12"/>
+      <c r="K21" s="12"/>
+      <c r="L21" s="12"/>
+      <c r="M21" s="7"/>
+      <c r="N21" s="25"/>
+      <c r="O21" s="23"/>
+      <c r="P21" s="23"/>
+      <c r="Q21" s="23"/>
+      <c r="R21" s="23"/>
+      <c r="S21" s="24"/>
+      <c r="T21" s="24"/>
+    </row>
+    <row r="22" spans="1:20" s="9" customFormat="1">
+      <c r="A22" s="7"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="12"/>
+      <c r="J22" s="12"/>
+      <c r="K22" s="12"/>
+      <c r="L22" s="12"/>
+      <c r="M22" s="8"/>
+      <c r="N22" s="25"/>
+      <c r="O22" s="23"/>
+      <c r="P22" s="23"/>
+      <c r="Q22" s="23"/>
+      <c r="R22" s="23"/>
+      <c r="S22" s="24"/>
+      <c r="T22" s="24"/>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="N23" s="25"/>
+      <c r="O23" s="23"/>
+      <c r="P23" s="23"/>
+      <c r="Q23" s="23"/>
+      <c r="R23" s="23"/>
+      <c r="S23" s="23"/>
+      <c r="T23" s="23"/>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="N24" s="25"/>
+      <c r="O24" s="23"/>
+      <c r="P24" s="23"/>
+      <c r="Q24" s="23"/>
+      <c r="R24" s="23"/>
+      <c r="S24" s="23"/>
+      <c r="T24" s="23"/>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="N25" s="25"/>
+      <c r="O25" s="23"/>
+      <c r="P25" s="23"/>
+      <c r="Q25" s="23"/>
+      <c r="R25" s="23"/>
+      <c r="S25" s="23"/>
+      <c r="T25" s="23"/>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="N26" s="25"/>
+      <c r="O26" s="23"/>
+      <c r="P26" s="23"/>
+      <c r="Q26" s="23"/>
+      <c r="R26" s="23"/>
+      <c r="S26" s="23"/>
+      <c r="T26" s="23"/>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="N27" s="25"/>
+      <c r="O27" s="23"/>
+      <c r="P27" s="23"/>
+      <c r="Q27" s="23"/>
+      <c r="R27" s="23"/>
+      <c r="S27" s="23"/>
+      <c r="T27" s="23"/>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="N28" s="25"/>
+      <c r="O28" s="23"/>
+      <c r="P28" s="23"/>
+      <c r="Q28" s="23"/>
+      <c r="R28" s="23"/>
+      <c r="S28" s="23"/>
+      <c r="T28" s="23"/>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="N29" s="25"/>
+      <c r="O29" s="23"/>
+      <c r="P29" s="23"/>
+      <c r="Q29" s="23"/>
+      <c r="R29" s="23"/>
+      <c r="S29" s="23"/>
+      <c r="T29" s="23"/>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="N30" s="25"/>
+      <c r="O30" s="23"/>
+      <c r="P30" s="23"/>
+      <c r="Q30" s="23"/>
+      <c r="R30" s="23"/>
+      <c r="S30" s="23"/>
+      <c r="T30" s="23"/>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="N31" s="25"/>
+      <c r="O31" s="23"/>
+      <c r="P31" s="23"/>
+      <c r="Q31" s="23"/>
+      <c r="R31" s="23"/>
+      <c r="S31" s="23"/>
+      <c r="T31" s="23"/>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="N32" s="25"/>
+      <c r="O32" s="23"/>
+      <c r="P32" s="23"/>
+      <c r="Q32" s="23"/>
+      <c r="R32" s="23"/>
+      <c r="S32" s="23"/>
+      <c r="T32" s="23"/>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="N33" s="25"/>
+      <c r="O33" s="23"/>
+      <c r="P33" s="23"/>
+      <c r="Q33" s="23"/>
+      <c r="R33" s="23"/>
+      <c r="S33" s="23"/>
+      <c r="T33" s="23"/>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="N34" s="25"/>
+      <c r="O34" s="23"/>
+      <c r="P34" s="23"/>
+      <c r="Q34" s="23"/>
+      <c r="R34" s="23"/>
+      <c r="S34" s="23"/>
+      <c r="T34" s="23"/>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="N35" s="25"/>
+      <c r="O35" s="23"/>
+      <c r="P35" s="23"/>
+      <c r="Q35" s="23"/>
+      <c r="R35" s="23"/>
+      <c r="S35" s="23"/>
+      <c r="T35" s="23"/>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="N36" s="25"/>
+      <c r="O36" s="23"/>
+      <c r="P36" s="23"/>
+      <c r="Q36" s="23"/>
+      <c r="R36" s="23"/>
+      <c r="S36" s="23"/>
+      <c r="T36" s="23"/>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="N37" s="25"/>
+      <c r="O37" s="23"/>
+      <c r="P37" s="23"/>
+      <c r="Q37" s="23"/>
+      <c r="R37" s="23"/>
+      <c r="S37" s="23"/>
+      <c r="T37" s="23"/>
+    </row>
+    <row r="38" spans="1:20">
+      <c r="N38" s="25"/>
+      <c r="O38" s="23"/>
+      <c r="P38" s="23"/>
+      <c r="Q38" s="23"/>
+      <c r="R38" s="23"/>
+      <c r="S38" s="23"/>
+      <c r="T38" s="23"/>
+    </row>
+    <row r="39" spans="1:20">
+      <c r="N39" s="25"/>
+      <c r="O39" s="23"/>
+      <c r="P39" s="23"/>
+      <c r="Q39" s="23"/>
+      <c r="R39" s="23"/>
+      <c r="S39" s="23"/>
+      <c r="T39" s="23"/>
+    </row>
+    <row r="40" spans="1:20" s="12" customFormat="1">
+      <c r="A40" s="7"/>
+      <c r="B40" s="10"/>
+      <c r="C40" s="10"/>
+      <c r="D40" s="10"/>
+      <c r="E40" s="11"/>
+      <c r="F40" s="11"/>
+      <c r="G40" s="14"/>
+      <c r="M40" s="7"/>
+      <c r="N40" s="25"/>
+      <c r="O40" s="23"/>
+      <c r="P40" s="23"/>
+      <c r="Q40" s="23"/>
+      <c r="R40" s="23"/>
+      <c r="S40" s="26"/>
+      <c r="T40" s="26"/>
+    </row>
+    <row r="41" spans="1:20" s="12" customFormat="1">
+      <c r="A41" s="7"/>
+      <c r="B41" s="10"/>
+      <c r="C41" s="10"/>
+      <c r="D41" s="10"/>
+      <c r="E41" s="11"/>
+      <c r="F41" s="11"/>
+      <c r="G41" s="14"/>
+      <c r="M41" s="7"/>
+      <c r="N41" s="25"/>
+      <c r="O41" s="23"/>
+      <c r="P41" s="23"/>
+      <c r="Q41" s="23"/>
+      <c r="R41" s="23"/>
+      <c r="S41" s="26"/>
+      <c r="T41" s="26"/>
+    </row>
+    <row r="42" spans="1:20" s="12" customFormat="1">
+      <c r="A42" s="7"/>
+      <c r="B42" s="10"/>
+      <c r="C42" s="10"/>
+      <c r="D42" s="10"/>
+      <c r="E42" s="11"/>
+      <c r="F42" s="11"/>
+      <c r="G42" s="14"/>
+      <c r="M42" s="7"/>
+      <c r="N42" s="25"/>
+      <c r="O42" s="23"/>
+      <c r="P42" s="23"/>
+      <c r="Q42" s="23"/>
+      <c r="R42" s="23"/>
+      <c r="S42" s="26"/>
+      <c r="T42" s="26"/>
+    </row>
+    <row r="43" spans="1:20" s="12" customFormat="1">
+      <c r="A43" s="7"/>
+      <c r="B43" s="10"/>
+      <c r="C43" s="10"/>
+      <c r="D43" s="10"/>
+      <c r="E43" s="11"/>
+      <c r="F43" s="11"/>
+      <c r="G43" s="14"/>
+      <c r="M43" s="7"/>
+      <c r="N43" s="25"/>
+      <c r="O43" s="23"/>
+      <c r="P43" s="23"/>
+      <c r="Q43" s="23"/>
+      <c r="R43" s="23"/>
+      <c r="S43" s="26"/>
+      <c r="T43" s="26"/>
+    </row>
+    <row r="44" spans="1:20" s="12" customFormat="1">
+      <c r="A44" s="7"/>
+      <c r="B44" s="10"/>
+      <c r="C44" s="10"/>
+      <c r="D44" s="10"/>
+      <c r="E44" s="11"/>
+      <c r="F44" s="11"/>
+      <c r="G44" s="14"/>
+      <c r="M44" s="7"/>
+      <c r="N44" s="16"/>
+      <c r="O44" s="7"/>
+      <c r="P44" s="7"/>
+      <c r="Q44" s="7"/>
+      <c r="R44" s="7"/>
+    </row>
+    <row r="45" spans="1:20" s="12" customFormat="1">
+      <c r="A45" s="7"/>
+      <c r="B45" s="10"/>
+      <c r="C45" s="10"/>
+      <c r="D45" s="10"/>
+      <c r="E45" s="11"/>
+      <c r="F45" s="11"/>
+      <c r="G45" s="14"/>
+      <c r="M45" s="7"/>
+      <c r="N45" s="16"/>
+      <c r="O45" s="7"/>
+      <c r="P45" s="7"/>
+      <c r="Q45" s="7"/>
+      <c r="R45" s="7"/>
+    </row>
+    <row r="46" spans="1:20" s="12" customFormat="1">
+      <c r="A46" s="7"/>
+      <c r="B46" s="10"/>
+      <c r="C46" s="10"/>
+      <c r="D46" s="10"/>
+      <c r="E46" s="11"/>
+      <c r="F46" s="11"/>
+      <c r="G46" s="14"/>
+      <c r="M46" s="7"/>
+      <c r="N46" s="16"/>
+      <c r="O46" s="7"/>
+      <c r="P46" s="7"/>
+      <c r="Q46" s="7"/>
+      <c r="R46" s="7"/>
+    </row>
+    <row r="49" spans="1:18" s="12" customFormat="1">
+      <c r="A49" s="7"/>
+      <c r="B49" s="10"/>
+      <c r="C49" s="10"/>
+      <c r="D49" s="10"/>
+      <c r="E49" s="11"/>
+      <c r="F49" s="11"/>
+      <c r="G49" s="14"/>
+      <c r="M49" s="7"/>
+      <c r="N49" s="16"/>
+      <c r="O49" s="7"/>
+      <c r="P49" s="7"/>
+      <c r="Q49" s="7"/>
+      <c r="R49" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
